--- a/data_excel/924.xlsx
+++ b/data_excel/924.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,13 +99,14 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +480,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,16 +628,16 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>

--- a/data_excel/924.xlsx
+++ b/data_excel/924.xlsx
@@ -102,11 +102,11 @@
     <t>3</t>
   </si>
   <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,6 +157,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -172,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -480,7 +492,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,10 +641,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
